--- a/author_data.xlsx
+++ b/author_data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -530,51 +530,7 @@
         <v>0</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>45389.02210648148</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>sWh_JsAAAAAJ</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Mayur Chauhan</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Patanjali Research Foundation</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>@prft.co.in</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>["Clinical studies", "Pharmacognosy", "Ayurveda"]</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>CE</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" s="2" t="n">
-        <v>45385.49611111111</v>
+        <v>45389.61447916667</v>
       </c>
     </row>
   </sheetData>
